--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_59.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_59.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_60</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.09441489361702127</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'A:min']]</t>
-        </is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.162280701754386</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'B:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(52.674489, 57.42297)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(83.215079, 100.885464)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
-        </is>
-      </c>
+          <t>[('0:00:06.357029', '0:00:23.632675')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2201086956521739</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1916666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Eb/5']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(19.139614, 27.777437)]</t>
+          <t>[['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(81.397573, 88.735079)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:07.160000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:04:03.440000', '0:04:06.980000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1332236842105263</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(4.155032, 7.525011)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>[('0:00:07.600000', '0:00:23.340000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2392241379310345</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2873563218390804</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(10.36, 18.44)]</t>
+          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(81.42, 90.04)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:21.900000', '0:00:52.440000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:47.020000', '0:01:01.580000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06163522012578616</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3238636363636364</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'G']]</t>
+          <t>[['C:min', 'G:maj/B', 'C:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(38.77, 46.94)]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(20.940758, 23.936132)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:16.240000', '0:00:19.080000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:25.580000', '0:01:34.240000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_20</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1152173913043478</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_180</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1231190150478796</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
+          <t>[['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(8.86, 14.12)]</t>
+          <t>[['F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(18.66, 20.74)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:31.834264', '0:01:38.974002')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:00.440395', '0:00:05.558652')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5357142857142857</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
+          <t>[['A', 'D', 'A', 'E'], ['A', 'E', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(80.92, 89.04)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj'], ['E:maj/B', 'B:maj', 'B:7', 'E:maj/B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(70.34, 77.22)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:40.490000', '0:00:50.260000'), ('0:00:00.522000', '0:00:07.205000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:55.680000', '0:01:06.100000'), ('0:02:09.820000', '0:02:25.660000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_27</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2053571428571428</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(9.82, 12.93)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(216.28, 224.4)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:45.260000', '0:00:57.580000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:02.020000', '0:00:10.620000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(66.1, 84.78)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(117.68, 119.48)]</t>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_1</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.15375</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D', 'D/2', 'D/3']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(53.594164, 57.7109)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.72, 6.88)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:04.520000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:17.680000', '0:01:26.540000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3736263736263736</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_108</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3910984848484849</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>[['D', 'G', 'C', 'G', 'D', 'C', 'G'], ['G', 'C', 'G', 'D', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.66, 8.22)]</t>
+          <t>[['E', 'A', 'D', 'A', 'E', 'D', 'A'], ['A', 'D', 'A', 'E', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(49.48, 62.36)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:28.800769', '0:00:50.094027'), ('0:00:51.614934', '0:01:13.499741')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:20.776621', '0:00:41.825510'), ('0:00:01.829138', '0:00:22.402018')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2793650793650794</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Gb:7', 'Cb', 'Gb:7', 'Cb']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(10.4, 19.2)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(45.522, 50.551)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1483870967741935</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.82, 19.18)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:02:30.160000', '0:02:34.940000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:02:30.200000', '0:02:34.940000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2039473684210526</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'G', 'C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E/3', 'A', 'A', 'D', 'E', 'A']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(59.333356, 74.101247)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(13.508294, 21.321809)]</t>
+          <t>[('0:00:07.760000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1534526854219949</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'E/7']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(101.389275, 105.127688)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(9.201473, 13.148866)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:07.760000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:05.700000', '0:00:19.720000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_72</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1507352941176471</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E'], ['A', 'E', 'A']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj', 'G:maj'], ['C:maj', 'G:maj', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(55.374892, 60.67956), (0.421247, 3.953211)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(8.9, 10.62), (8.34, 10.04)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
